--- a/techniqo/data_new_ticker/GRINDWELL.xlsx
+++ b/techniqo/data_new_ticker/GRINDWELL.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G1410"/>
+  <dimension ref="A1:G1412"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -49736,6 +49736,56 @@
         <v>18519</v>
       </c>
     </row>
+    <row r="1411">
+      <c r="A1411" t="inlineStr">
+        <is>
+          <t>15-09-2020</t>
+        </is>
+      </c>
+      <c r="B1411" t="n">
+        <v>549</v>
+      </c>
+      <c r="C1411" t="n">
+        <v>561</v>
+      </c>
+      <c r="D1411" t="n">
+        <v>530.35</v>
+      </c>
+      <c r="E1411" t="n">
+        <v>554.7</v>
+      </c>
+      <c r="F1411" t="n">
+        <v>22995</v>
+      </c>
+      <c r="G1411" t="n">
+        <v>18520</v>
+      </c>
+    </row>
+    <row r="1412">
+      <c r="A1412" t="inlineStr">
+        <is>
+          <t>16-09-2020</t>
+        </is>
+      </c>
+      <c r="B1412" t="n">
+        <v>568.8</v>
+      </c>
+      <c r="C1412" t="n">
+        <v>654.5</v>
+      </c>
+      <c r="D1412" t="n">
+        <v>547</v>
+      </c>
+      <c r="E1412" t="n">
+        <v>570.55</v>
+      </c>
+      <c r="F1412" t="n">
+        <v>222068</v>
+      </c>
+      <c r="G1412" t="n">
+        <v>18521</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/techniqo/data_new_ticker/GRINDWELL.xlsx
+++ b/techniqo/data_new_ticker/GRINDWELL.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G1412"/>
+  <dimension ref="A1:G1414"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -49786,6 +49786,56 @@
         <v>18521</v>
       </c>
     </row>
+    <row r="1413">
+      <c r="A1413" t="inlineStr">
+        <is>
+          <t>17-09-2020</t>
+        </is>
+      </c>
+      <c r="B1413" t="n">
+        <v>567</v>
+      </c>
+      <c r="C1413" t="n">
+        <v>570.45</v>
+      </c>
+      <c r="D1413" t="n">
+        <v>556.55</v>
+      </c>
+      <c r="E1413" t="n">
+        <v>559.05</v>
+      </c>
+      <c r="F1413" t="n">
+        <v>19377</v>
+      </c>
+      <c r="G1413" t="n">
+        <v>18522</v>
+      </c>
+    </row>
+    <row r="1414">
+      <c r="A1414" t="inlineStr">
+        <is>
+          <t>18-09-2020</t>
+        </is>
+      </c>
+      <c r="B1414" t="n">
+        <v>560</v>
+      </c>
+      <c r="C1414" t="n">
+        <v>560.05</v>
+      </c>
+      <c r="D1414" t="n">
+        <v>546</v>
+      </c>
+      <c r="E1414" t="n">
+        <v>546.8</v>
+      </c>
+      <c r="F1414" t="n">
+        <v>17643</v>
+      </c>
+      <c r="G1414" t="n">
+        <v>18523</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
